--- a/va_facility_data_2025-02-20/Defiance VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Defiance%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Defiance VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Defiance%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R08872d7ee8354353831bf0da227b2685"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1ca86cd4a05a4b9fb7fe048fbd7185bc"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rddb753baf1994838bcdddca504a598ab"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7f0b02ed28094dff929cadd3a1fd17b1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re630dc8e29cc4fc999476f09290d83ad"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R171acf1b156543fb83260dedb993dce1"/>
   </x:sheets>
 </x:workbook>
 </file>
